--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom-Alcohol.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom-Alcohol.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Shipworks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,11 @@
   <sheets>
     <sheet name="US Exp Dom-Alcohol" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_lu1">#REF!</definedName>
     <definedName name="_lu2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="159">
   <si>
     <t>SaveLabel</t>
   </si>
@@ -505,12 +502,15 @@
   </si>
   <si>
     <t>GUARANTEED_FUNDS</t>
+  </si>
+  <si>
+    <t>DIRECT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -601,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -746,13 +746,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -770,7 +800,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -785,7 +815,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -800,21 +830,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -827,10 +842,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -842,10 +855,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -860,7 +871,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -914,9 +925,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -924,54 +932,75 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -995,45 +1024,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover Page"/>
-      <sheetName val="Total Test Cases Count"/>
-      <sheetName val="US Exp Dom"/>
-      <sheetName val="US Exp Dom-Alcohol"/>
-      <sheetName val="US Exp Intl"/>
-      <sheetName val="US Exp Intl-Alcohol"/>
-      <sheetName val="US Grn Dom Intl And Home Del"/>
-      <sheetName val="Grn Alcohol"/>
-      <sheetName val="CA Exp Dom"/>
-      <sheetName val="CA Exp Intl"/>
-      <sheetName val="CA Grn Dom Intl"/>
-      <sheetName val="IMpB Smartpost test cases"/>
-      <sheetName val="ETD"/>
-      <sheetName val="OneRate"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1336,9 +1326,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BW15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="BN27" sqref="BN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1797,2262 +1787,2264 @@
       <c r="A3" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>323210</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="42">
         <v>36</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="V3" s="20">
+      <c r="V3" s="42">
         <v>323210</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="W3" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AB3" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AG3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="20" t="s">
+      <c r="AH3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20" t="s">
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="AK3" s="20" t="s">
+      <c r="AK3" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20" t="s">
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="AN3" s="20" t="s">
+      <c r="AN3" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="AO3" s="20">
+      <c r="AO3" s="42">
         <v>123456789</v>
       </c>
-      <c r="AP3" s="20" t="s">
+      <c r="AP3" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20" t="s">
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="AS3" s="20">
+      <c r="AS3" s="42">
         <v>3305551234</v>
       </c>
-      <c r="AT3" s="20" t="s">
+      <c r="AT3" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AU3" s="20" t="s">
+      <c r="AU3" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="AV3" s="20" t="s">
+      <c r="AV3" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AW3" s="20" t="s">
+      <c r="AW3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="AX3" s="20" t="s">
+      <c r="AX3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AY3" s="20" t="s">
+      <c r="AY3" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AZ3" s="20" t="s">
+      <c r="AZ3" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="BA3" s="20">
+      <c r="BA3" s="42">
         <v>1</v>
       </c>
-      <c r="BB3" s="20">
+      <c r="BB3" s="42">
         <v>250</v>
       </c>
-      <c r="BC3" s="20" t="s">
+      <c r="BC3" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="BD3" s="20" t="s">
+      <c r="BD3" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="BE3" s="20" t="s">
+      <c r="BE3" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="BF3" s="20" t="s">
+      <c r="BF3" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="BG3" s="20" t="s">
+      <c r="BG3" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="BH3" s="20" t="s">
+      <c r="BH3" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20" t="s">
+      <c r="BI3" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ3" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="BK3" s="20" t="s">
+      <c r="BK3" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="BL3" s="20"/>
-      <c r="BM3" s="20"/>
-      <c r="BN3" s="20" t="s">
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="BO3" s="23" t="s">
+      <c r="BO3" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="BP3" s="24"/>
-      <c r="BQ3" s="24"/>
-      <c r="BR3" s="24"/>
-      <c r="BS3" s="24"/>
-      <c r="BT3" s="24"/>
-      <c r="BU3" s="24"/>
-      <c r="BV3" s="24"/>
-      <c r="BW3" s="24"/>
+      <c r="BP3" s="22"/>
+      <c r="BQ3" s="22"/>
+      <c r="BR3" s="22"/>
+      <c r="BS3" s="22"/>
+      <c r="BT3" s="22"/>
+      <c r="BU3" s="22"/>
+      <c r="BV3" s="22"/>
+      <c r="BW3" s="22"/>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="23">
         <v>323217</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="23">
         <v>9</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="26" t="s">
+      <c r="T4" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="U4" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="23">
         <v>323217</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="W4" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="X4" s="26" t="s">
+      <c r="X4" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y4" s="26" t="s">
+      <c r="Y4" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z4" s="26" t="s">
+      <c r="Z4" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA4" s="26" t="s">
+      <c r="AA4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="26" t="s">
+      <c r="AB4" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AC4" s="26" t="s">
+      <c r="AC4" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD4" s="26" t="s">
+      <c r="AD4" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE4" s="26" t="s">
+      <c r="AE4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF4" s="26" t="s">
+      <c r="AF4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AG4" s="26" t="s">
+      <c r="AG4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26" t="s">
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26" t="s">
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="BA4" s="26">
+      <c r="BA4" s="23">
         <v>1</v>
       </c>
-      <c r="BB4" s="26">
+      <c r="BB4" s="23">
         <v>250</v>
       </c>
-      <c r="BC4" s="26" t="s">
+      <c r="BC4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="BD4" s="26" t="s">
+      <c r="BD4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="BE4" s="26">
+      <c r="BE4" s="23">
         <v>9</v>
       </c>
-      <c r="BF4" s="26">
+      <c r="BF4" s="23">
         <v>20</v>
       </c>
-      <c r="BG4" s="26">
+      <c r="BG4" s="23">
         <v>15</v>
       </c>
-      <c r="BH4" s="26">
+      <c r="BH4" s="23">
         <v>20</v>
       </c>
-      <c r="BI4" s="26" t="s">
+      <c r="BI4" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="BJ4" s="26" t="s">
+      <c r="BJ4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="BK4" s="26" t="s">
+      <c r="BK4" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="26"/>
-      <c r="BN4" s="26" t="s">
+      <c r="BL4" s="23"/>
+      <c r="BM4" s="23"/>
+      <c r="BN4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="BO4" s="29" t="s">
+      <c r="BO4" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="BP4" s="24"/>
-      <c r="BQ4" s="24"/>
-      <c r="BR4" s="24"/>
-      <c r="BS4" s="24"/>
-      <c r="BT4" s="24"/>
-      <c r="BU4" s="24"/>
-      <c r="BV4" s="24"/>
-      <c r="BW4" s="24"/>
+      <c r="BP4" s="22"/>
+      <c r="BQ4" s="22"/>
+      <c r="BR4" s="22"/>
+      <c r="BS4" s="22"/>
+      <c r="BT4" s="22"/>
+      <c r="BU4" s="22"/>
+      <c r="BV4" s="22"/>
+      <c r="BW4" s="22"/>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="23">
         <v>323238</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="23">
         <v>9</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="O5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="S5" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="U5" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="23">
         <v>323238</v>
       </c>
-      <c r="W5" s="28" t="s">
+      <c r="W5" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="X5" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y5" s="26" t="s">
+      <c r="Y5" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z5" s="26" t="s">
+      <c r="Z5" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA5" s="26" t="s">
+      <c r="AA5" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="26" t="s">
+      <c r="AB5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="26" t="s">
+      <c r="AC5" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD5" s="26" t="s">
+      <c r="AD5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE5" s="26" t="s">
+      <c r="AE5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF5" s="26" t="s">
+      <c r="AF5" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AG5" s="26" t="s">
+      <c r="AG5" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26" t="s">
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="26"/>
-      <c r="AV5" s="26"/>
-      <c r="AW5" s="26"/>
-      <c r="AX5" s="26"/>
-      <c r="AY5" s="26"/>
-      <c r="AZ5" s="26" t="s">
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="BA5" s="26">
+      <c r="BA5" s="23">
         <v>1</v>
       </c>
-      <c r="BB5" s="26">
+      <c r="BB5" s="23">
         <v>250</v>
       </c>
-      <c r="BC5" s="26" t="s">
+      <c r="BC5" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="BD5" s="26" t="s">
+      <c r="BD5" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="BE5" s="26">
+      <c r="BE5" s="23">
         <v>9</v>
       </c>
-      <c r="BF5" s="26">
+      <c r="BF5" s="23">
         <v>20</v>
       </c>
-      <c r="BG5" s="26">
+      <c r="BG5" s="23">
         <v>15</v>
       </c>
-      <c r="BH5" s="26">
+      <c r="BH5" s="23">
         <v>20</v>
       </c>
-      <c r="BI5" s="26" t="s">
+      <c r="BI5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="BJ5" s="26" t="s">
+      <c r="BJ5" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="BK5" s="26" t="s">
+      <c r="BK5" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="BL5" s="26"/>
-      <c r="BM5" s="26"/>
-      <c r="BN5" s="26" t="s">
+      <c r="BL5" s="23"/>
+      <c r="BM5" s="23"/>
+      <c r="BN5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="BO5" s="29" t="s">
+      <c r="BO5" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="BP5" s="24"/>
-      <c r="BQ5" s="24"/>
-      <c r="BR5" s="24"/>
-      <c r="BS5" s="24"/>
-      <c r="BT5" s="24"/>
-      <c r="BU5" s="24"/>
-      <c r="BV5" s="24"/>
-      <c r="BW5" s="24"/>
+      <c r="BP5" s="22"/>
+      <c r="BQ5" s="22"/>
+      <c r="BR5" s="22"/>
+      <c r="BS5" s="22"/>
+      <c r="BT5" s="22"/>
+      <c r="BU5" s="22"/>
+      <c r="BV5" s="22"/>
+      <c r="BW5" s="22"/>
     </row>
-    <row r="6" spans="1:75" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:75" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>323259</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="S6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="T6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="U6" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="V6" s="26">
+      <c r="V6" s="23">
         <v>323259</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="W6" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="X6" s="26" t="s">
+      <c r="X6" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y6" s="26" t="s">
+      <c r="Y6" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="Z6" s="26" t="s">
+      <c r="Z6" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AA6" s="26" t="s">
+      <c r="AA6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB6" s="26" t="s">
+      <c r="AB6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AC6" s="26" t="s">
+      <c r="AC6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD6" s="26" t="s">
+      <c r="AD6" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="AE6" s="26">
+      <c r="AE6" s="23">
         <v>150067600</v>
       </c>
-      <c r="AF6" s="26" t="s">
+      <c r="AF6" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AG6" s="26" t="s">
+      <c r="AG6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26" t="s">
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="26"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="26" t="s">
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="23"/>
+      <c r="AZ6" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="BA6" s="26">
+      <c r="BA6" s="23">
         <v>1</v>
       </c>
-      <c r="BB6" s="26">
+      <c r="BB6" s="23">
         <v>250</v>
       </c>
-      <c r="BC6" s="26" t="s">
+      <c r="BC6" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="BD6" s="26" t="s">
+      <c r="BD6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="BE6" s="30" t="s">
+      <c r="BE6" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="BF6" s="26">
+      <c r="BF6" s="23">
         <v>10</v>
       </c>
-      <c r="BG6" s="26">
+      <c r="BG6" s="23">
         <v>10</v>
       </c>
-      <c r="BH6" s="26">
+      <c r="BH6" s="23">
         <v>10</v>
       </c>
-      <c r="BI6" s="26" t="s">
+      <c r="BI6" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="BJ6" s="26" t="s">
+      <c r="BJ6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="BK6" s="26" t="s">
+      <c r="BK6" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="BL6" s="26"/>
-      <c r="BM6" s="26"/>
-      <c r="BN6" s="26" t="s">
+      <c r="BL6" s="23"/>
+      <c r="BM6" s="23"/>
+      <c r="BN6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="BO6" s="29" t="s">
+      <c r="BO6" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="BP6" s="24"/>
-      <c r="BQ6" s="24"/>
-      <c r="BR6" s="24"/>
-      <c r="BS6" s="24"/>
-      <c r="BT6" s="24"/>
-      <c r="BU6" s="24"/>
-      <c r="BV6" s="24"/>
-      <c r="BW6" s="24"/>
+      <c r="BP6" s="22"/>
+      <c r="BQ6" s="22"/>
+      <c r="BR6" s="22"/>
+      <c r="BS6" s="22"/>
+      <c r="BT6" s="22"/>
+      <c r="BU6" s="22"/>
+      <c r="BV6" s="22"/>
+      <c r="BW6" s="22"/>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <v>323267</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="S7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T7" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="U7" s="26" t="s">
+      <c r="U7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="V7" s="26">
+      <c r="V7" s="23">
         <v>323267</v>
       </c>
-      <c r="W7" s="28" t="s">
+      <c r="W7" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="X7" s="26" t="s">
+      <c r="X7" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y7" s="26" t="s">
+      <c r="Y7" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="Z7" s="26" t="s">
+      <c r="Z7" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="26" t="s">
+      <c r="AA7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB7" s="26" t="s">
+      <c r="AB7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AC7" s="26" t="s">
+      <c r="AC7" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD7" s="26" t="s">
+      <c r="AD7" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="AE7" s="26">
+      <c r="AE7" s="23">
         <v>150067600</v>
       </c>
-      <c r="AF7" s="26" t="s">
+      <c r="AF7" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AG7" s="26" t="s">
+      <c r="AG7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="26" t="s">
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="26"/>
-      <c r="AW7" s="26"/>
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="26" t="s">
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="BA7" s="26">
+      <c r="BA7" s="23">
         <v>1</v>
       </c>
-      <c r="BB7" s="26">
+      <c r="BB7" s="23">
         <v>250</v>
       </c>
-      <c r="BC7" s="26" t="s">
+      <c r="BC7" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="BD7" s="26" t="s">
+      <c r="BD7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="BE7" s="30" t="s">
+      <c r="BE7" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="BF7" s="26">
+      <c r="BF7" s="23">
         <v>10</v>
       </c>
-      <c r="BG7" s="26">
+      <c r="BG7" s="23">
         <v>10</v>
       </c>
-      <c r="BH7" s="26">
+      <c r="BH7" s="23">
         <v>10</v>
       </c>
-      <c r="BI7" s="26" t="s">
+      <c r="BI7" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="BJ7" s="26" t="s">
+      <c r="BJ7" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="BK7" s="26" t="s">
+      <c r="BK7" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="BL7" s="26"/>
-      <c r="BM7" s="26"/>
-      <c r="BN7" s="26" t="s">
+      <c r="BL7" s="23"/>
+      <c r="BM7" s="23"/>
+      <c r="BN7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="BO7" s="29" t="s">
+      <c r="BO7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="BP7" s="24"/>
-      <c r="BQ7" s="24"/>
-      <c r="BR7" s="24"/>
-      <c r="BS7" s="24"/>
-      <c r="BT7" s="24"/>
-      <c r="BU7" s="24"/>
-      <c r="BV7" s="24"/>
-      <c r="BW7" s="24"/>
+      <c r="BP7" s="22"/>
+      <c r="BQ7" s="22"/>
+      <c r="BR7" s="22"/>
+      <c r="BS7" s="22"/>
+      <c r="BT7" s="22"/>
+      <c r="BU7" s="22"/>
+      <c r="BV7" s="22"/>
+      <c r="BW7" s="22"/>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="23">
         <v>323277</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="S8" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="26" t="s">
+      <c r="T8" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="U8" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="V8" s="26">
+      <c r="V8" s="23">
         <v>323277</v>
       </c>
-      <c r="W8" s="28" t="s">
+      <c r="W8" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="X8" s="26" t="s">
+      <c r="X8" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y8" s="26" t="s">
+      <c r="Y8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="Z8" s="26" t="s">
+      <c r="Z8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="AA8" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB8" s="26" t="s">
+      <c r="AB8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AC8" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD8" s="26" t="s">
+      <c r="AD8" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE8" s="26" t="s">
+      <c r="AE8" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF8" s="26" t="s">
+      <c r="AF8" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AG8" s="26" t="s">
+      <c r="AG8" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26" t="s">
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
-      <c r="AR8" s="26"/>
-      <c r="AS8" s="26"/>
-      <c r="AT8" s="26"/>
-      <c r="AU8" s="26"/>
-      <c r="AV8" s="26"/>
-      <c r="AW8" s="26"/>
-      <c r="AX8" s="26"/>
-      <c r="AY8" s="26"/>
-      <c r="AZ8" s="26" t="s">
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="BA8" s="26">
+      <c r="BA8" s="23">
         <v>1</v>
       </c>
-      <c r="BB8" s="26">
+      <c r="BB8" s="23">
         <v>250</v>
       </c>
-      <c r="BC8" s="26" t="s">
+      <c r="BC8" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="BD8" s="26" t="s">
+      <c r="BD8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="BE8" s="30" t="s">
+      <c r="BE8" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="BF8" s="26">
+      <c r="BF8" s="23">
         <v>10</v>
       </c>
-      <c r="BG8" s="26">
+      <c r="BG8" s="23">
         <v>10</v>
       </c>
-      <c r="BH8" s="26">
+      <c r="BH8" s="23">
         <v>10</v>
       </c>
-      <c r="BI8" s="26" t="s">
+      <c r="BI8" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="BJ8" s="26" t="s">
+      <c r="BJ8" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="BK8" s="26" t="s">
+      <c r="BK8" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="BL8" s="26"/>
-      <c r="BM8" s="26"/>
-      <c r="BN8" s="26" t="s">
+      <c r="BL8" s="23"/>
+      <c r="BM8" s="23"/>
+      <c r="BN8" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="BO8" s="29" t="s">
+      <c r="BO8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="BP8" s="24"/>
-      <c r="BQ8" s="24"/>
-      <c r="BR8" s="24"/>
-      <c r="BS8" s="24"/>
-      <c r="BT8" s="24"/>
-      <c r="BU8" s="24"/>
-      <c r="BV8" s="24"/>
-      <c r="BW8" s="24"/>
+      <c r="BP8" s="22"/>
+      <c r="BQ8" s="22"/>
+      <c r="BR8" s="22"/>
+      <c r="BS8" s="22"/>
+      <c r="BT8" s="22"/>
+      <c r="BU8" s="22"/>
+      <c r="BV8" s="22"/>
+      <c r="BW8" s="22"/>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="23">
         <v>323284</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="23">
         <v>17</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="S9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="26" t="s">
+      <c r="T9" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="U9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="V9" s="26">
+      <c r="V9" s="23">
         <v>323284</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="X9" s="26" t="s">
+      <c r="X9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y9" s="26" t="s">
+      <c r="Y9" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="Z9" s="26" t="s">
+      <c r="Z9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="AA9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB9" s="26" t="s">
+      <c r="AB9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AC9" s="26" t="s">
+      <c r="AC9" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD9" s="26" t="s">
+      <c r="AD9" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE9" s="26" t="s">
+      <c r="AE9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF9" s="26" t="s">
+      <c r="AF9" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AG9" s="26" t="s">
+      <c r="AG9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26" t="s">
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26" t="s">
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23"/>
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23"/>
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23"/>
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="BA9" s="26">
+      <c r="BA9" s="23">
         <v>1</v>
       </c>
-      <c r="BB9" s="26">
+      <c r="BB9" s="23">
         <v>250</v>
       </c>
-      <c r="BC9" s="26" t="s">
+      <c r="BC9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="BD9" s="26" t="s">
+      <c r="BD9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="BE9" s="26">
+      <c r="BE9" s="23">
         <v>17</v>
       </c>
-      <c r="BF9" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG9" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH9" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26" t="s">
+      <c r="BF9" s="23">
+        <v>10</v>
+      </c>
+      <c r="BG9" s="23">
+        <v>10</v>
+      </c>
+      <c r="BH9" s="23">
+        <v>10</v>
+      </c>
+      <c r="BI9" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ9" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="BK9" s="26" t="s">
+      <c r="BK9" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26" t="s">
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="BO9" s="29" t="s">
+      <c r="BO9" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-      <c r="BR9" s="24"/>
-      <c r="BS9" s="24"/>
-      <c r="BT9" s="24"/>
-      <c r="BU9" s="24"/>
-      <c r="BV9" s="24"/>
-      <c r="BW9" s="24"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22"/>
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22"/>
+      <c r="BW9" s="22"/>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="23">
         <v>323309</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="23">
         <v>20</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S10" s="26" t="s">
+      <c r="S10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="T10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="V10" s="26">
+      <c r="V10" s="23">
         <v>323309</v>
       </c>
-      <c r="W10" s="28" t="s">
+      <c r="W10" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="X10" s="26" t="s">
+      <c r="X10" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="Y10" s="26" t="s">
+      <c r="Y10" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="Z10" s="26" t="s">
+      <c r="Z10" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="AA10" s="26" t="s">
+      <c r="AA10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB10" s="26" t="s">
+      <c r="AB10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AC10" s="26" t="s">
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="26" t="s">
+      <c r="AD10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE10" s="26" t="s">
+      <c r="AE10" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF10" s="26" t="s">
+      <c r="AF10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AG10" s="26" t="s">
+      <c r="AG10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AH10" s="26" t="s">
+      <c r="AH10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26" t="s">
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="26"/>
-      <c r="AR10" s="26"/>
-      <c r="AS10" s="26"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26" t="s">
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="23"/>
+      <c r="AR10" s="23"/>
+      <c r="AS10" s="23"/>
+      <c r="AT10" s="23"/>
+      <c r="AU10" s="23"/>
+      <c r="AV10" s="23"/>
+      <c r="AW10" s="23"/>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="BA10" s="26">
+      <c r="BA10" s="23">
         <v>1</v>
       </c>
-      <c r="BB10" s="26">
+      <c r="BB10" s="23">
         <v>250</v>
       </c>
-      <c r="BC10" s="26" t="s">
+      <c r="BC10" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="BD10" s="26" t="s">
+      <c r="BD10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="BE10" s="26">
+      <c r="BE10" s="23">
         <v>20</v>
       </c>
-      <c r="BF10" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG10" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH10" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI10" s="26"/>
-      <c r="BJ10" s="26" t="s">
+      <c r="BF10" s="23">
+        <v>10</v>
+      </c>
+      <c r="BG10" s="23">
+        <v>10</v>
+      </c>
+      <c r="BH10" s="23">
+        <v>10</v>
+      </c>
+      <c r="BI10" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ10" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="BK10" s="26" t="s">
+      <c r="BK10" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="BL10" s="26"/>
-      <c r="BM10" s="26"/>
-      <c r="BN10" s="26" t="s">
+      <c r="BL10" s="23"/>
+      <c r="BM10" s="23"/>
+      <c r="BN10" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="BO10" s="29" t="s">
+      <c r="BO10" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="BP10" s="24"/>
-      <c r="BQ10" s="24"/>
-      <c r="BR10" s="24"/>
-      <c r="BS10" s="24"/>
-      <c r="BT10" s="24"/>
-      <c r="BU10" s="24"/>
-      <c r="BV10" s="24"/>
-      <c r="BW10" s="24"/>
+      <c r="BP10" s="22"/>
+      <c r="BQ10" s="22"/>
+      <c r="BR10" s="22"/>
+      <c r="BS10" s="22"/>
+      <c r="BT10" s="22"/>
+      <c r="BU10" s="22"/>
+      <c r="BV10" s="22"/>
+      <c r="BW10" s="22"/>
     </row>
     <row r="11" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="23">
         <v>323331</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="23">
         <v>9</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="26" t="s">
+      <c r="O11" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="Q11" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="R11" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S11" s="26" t="s">
+      <c r="S11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="26" t="s">
+      <c r="T11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="U11" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="V11" s="26">
+      <c r="V11" s="23">
         <v>323331</v>
       </c>
-      <c r="W11" s="28" t="s">
+      <c r="W11" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="X11" s="26" t="s">
+      <c r="X11" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y11" s="26" t="s">
+      <c r="Y11" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z11" s="26" t="s">
+      <c r="Z11" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA11" s="26" t="s">
+      <c r="AA11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="26" t="s">
+      <c r="AB11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AC11" s="26" t="s">
+      <c r="AC11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD11" s="26" t="s">
+      <c r="AD11" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE11" s="26" t="s">
+      <c r="AE11" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF11" s="26" t="s">
+      <c r="AF11" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AG11" s="26" t="s">
+      <c r="AG11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26" t="s">
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="26"/>
-      <c r="AS11" s="26"/>
-      <c r="AT11" s="26"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="26"/>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26" t="s">
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="23"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="BA11" s="26">
+      <c r="BA11" s="23">
         <v>1</v>
       </c>
-      <c r="BB11" s="26">
+      <c r="BB11" s="23">
         <v>250</v>
       </c>
-      <c r="BC11" s="26" t="s">
+      <c r="BC11" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="BD11" s="26" t="s">
+      <c r="BD11" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="BE11" s="26">
+      <c r="BE11" s="23">
         <v>9</v>
       </c>
-      <c r="BF11" s="26">
+      <c r="BF11" s="23">
         <v>20</v>
       </c>
-      <c r="BG11" s="26">
+      <c r="BG11" s="23">
         <v>15</v>
       </c>
-      <c r="BH11" s="26">
+      <c r="BH11" s="23">
         <v>20</v>
       </c>
-      <c r="BI11" s="26" t="s">
+      <c r="BI11" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="BJ11" s="26" t="s">
+      <c r="BJ11" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="BK11" s="26" t="s">
+      <c r="BK11" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="BL11" s="26"/>
-      <c r="BM11" s="26"/>
-      <c r="BN11" s="26" t="s">
+      <c r="BL11" s="23"/>
+      <c r="BM11" s="23"/>
+      <c r="BN11" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="BO11" s="29" t="s">
+      <c r="BO11" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="BP11" s="24"/>
-      <c r="BQ11" s="24"/>
-      <c r="BR11" s="24"/>
-      <c r="BS11" s="24"/>
-      <c r="BT11" s="24"/>
-      <c r="BU11" s="24"/>
-      <c r="BV11" s="24"/>
-      <c r="BW11" s="24"/>
+      <c r="BP11" s="22"/>
+      <c r="BQ11" s="22"/>
+      <c r="BR11" s="22"/>
+      <c r="BS11" s="22"/>
+      <c r="BT11" s="22"/>
+      <c r="BU11" s="22"/>
+      <c r="BV11" s="22"/>
+      <c r="BW11" s="22"/>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:75" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="23">
         <v>323287</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="44">
         <v>20</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="P12" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" s="26" t="s">
+      <c r="Q12" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="R12" s="26" t="s">
+      <c r="R12" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="S12" s="26" t="s">
+      <c r="S12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="26" t="s">
+      <c r="T12" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="U12" s="26" t="s">
+      <c r="U12" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="V12" s="26">
+      <c r="V12" s="36">
         <v>323287</v>
       </c>
-      <c r="W12" s="28" t="s">
+      <c r="W12" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="X12" s="26" t="s">
+      <c r="X12" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="Y12" s="26" t="s">
+      <c r="Y12" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="Z12" s="26">
+      <c r="Z12" s="36">
         <v>98003</v>
       </c>
-      <c r="AA12" s="26" t="s">
+      <c r="AA12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AB12" s="26" t="s">
+      <c r="AB12" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="AC12" s="26" t="s">
+      <c r="AC12" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD12" s="26" t="s">
+      <c r="AD12" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="AE12" s="26" t="s">
+      <c r="AE12" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="AF12" s="26" t="s">
+      <c r="AF12" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="AG12" s="26" t="s">
+      <c r="AG12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AH12" s="26" t="s">
+      <c r="AH12" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26" t="s">
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
-      <c r="AS12" s="26"/>
-      <c r="AT12" s="26"/>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="26"/>
-      <c r="AX12" s="26"/>
-      <c r="AY12" s="26"/>
-      <c r="AZ12" s="26" t="s">
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="BA12" s="26">
+      <c r="BA12" s="36">
         <v>1</v>
       </c>
-      <c r="BB12" s="26">
+      <c r="BB12" s="36">
         <v>250</v>
       </c>
-      <c r="BC12" s="26" t="s">
+      <c r="BC12" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="BD12" s="26" t="s">
+      <c r="BD12" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="BE12" s="30">
+      <c r="BE12" s="44">
         <v>20</v>
       </c>
-      <c r="BF12" s="26">
+      <c r="BF12" s="36">
         <v>30</v>
       </c>
-      <c r="BG12" s="26">
+      <c r="BG12" s="36">
         <v>30</v>
       </c>
-      <c r="BH12" s="26">
+      <c r="BH12" s="36">
         <v>30</v>
       </c>
-      <c r="BI12" s="26" t="s">
+      <c r="BI12" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="BJ12" s="26" t="s">
+      <c r="BJ12" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="BK12" s="26" t="s">
+      <c r="BK12" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="BL12" s="26"/>
-      <c r="BM12" s="26"/>
-      <c r="BN12" s="26" t="s">
+      <c r="BL12" s="36"/>
+      <c r="BM12" s="36"/>
+      <c r="BN12" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="BO12" s="29" t="s">
+      <c r="BO12" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="BP12" s="24"/>
-      <c r="BQ12" s="24"/>
-      <c r="BR12" s="24"/>
-      <c r="BS12" s="24"/>
-      <c r="BT12" s="24"/>
-      <c r="BU12" s="24"/>
-      <c r="BV12" s="24"/>
-      <c r="BW12" s="24"/>
+      <c r="BP12" s="22"/>
+      <c r="BQ12" s="22"/>
+      <c r="BR12" s="22"/>
+      <c r="BS12" s="22"/>
+      <c r="BT12" s="22"/>
+      <c r="BU12" s="22"/>
+      <c r="BV12" s="22"/>
+      <c r="BW12" s="22"/>
     </row>
     <row r="13" spans="1:75" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="29">
         <v>323351</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="43">
         <v>105</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="35" t="s">
+      <c r="M13" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="33" t="s">
+      <c r="N13" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="33" t="s">
+      <c r="P13" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="Q13" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="S13" s="33" t="s">
+      <c r="S13" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="T13" s="33" t="b">
+      <c r="T13" s="29"/>
+      <c r="U13" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="W13" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z13" s="43">
+        <v>30052</v>
+      </c>
+      <c r="AA13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC13" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="U13" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="V13" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="W13" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="X13" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y13" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z13" s="33">
-        <v>30052</v>
-      </c>
-      <c r="AA13" s="33" t="s">
+      <c r="AD13" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE13" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF13" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="AB13" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC13" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE13" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF13" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG13" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="26" t="s">
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="BA13" s="33">
+      <c r="BA13" s="43">
         <v>1</v>
       </c>
-      <c r="BB13" s="33">
+      <c r="BB13" s="43">
         <v>250</v>
       </c>
-      <c r="BC13" s="33" t="s">
+      <c r="BC13" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="BD13" s="33" t="s">
+      <c r="BD13" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="BE13" s="33">
+      <c r="BE13" s="43">
         <v>105</v>
       </c>
-      <c r="BF13" s="33">
+      <c r="BF13" s="43">
         <v>20</v>
       </c>
-      <c r="BG13" s="33">
+      <c r="BG13" s="43">
         <v>15</v>
       </c>
-      <c r="BH13" s="33">
+      <c r="BH13" s="43">
         <v>20</v>
       </c>
-      <c r="BI13" s="33" t="s">
+      <c r="BI13" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="BJ13" s="33" t="s">
+      <c r="BJ13" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="BK13" s="33" t="s">
+      <c r="BK13" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="BL13" s="33" t="s">
+      <c r="BL13" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="BM13" s="33" t="s">
+      <c r="BM13" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="BN13" s="33" t="s">
+      <c r="BN13" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="BO13" s="36" t="s">
+      <c r="BO13" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BP13" s="24"/>
-      <c r="BQ13" s="24"/>
-      <c r="BR13" s="24"/>
-      <c r="BS13" s="24"/>
-      <c r="BT13" s="24"/>
-      <c r="BU13" s="24"/>
-      <c r="BV13" s="24"/>
-      <c r="BW13" s="24"/>
+      <c r="BP13" s="22"/>
+      <c r="BQ13" s="22"/>
+      <c r="BR13" s="22"/>
+      <c r="BS13" s="22"/>
+      <c r="BT13" s="22"/>
+      <c r="BU13" s="22"/>
+      <c r="BV13" s="22"/>
+      <c r="BW13" s="22"/>
     </row>
     <row r="14" spans="1:75" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="29">
         <v>323396</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="29">
         <v>500</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="L14" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="V14" s="29">
+        <v>323396</v>
+      </c>
+      <c r="W14" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z14" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB14" s="29">
+        <v>9012633035</v>
+      </c>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE14" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF14" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH14" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA14" s="29">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="29">
+        <v>7000</v>
+      </c>
+      <c r="BC14" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD14" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="V14" s="33">
-        <v>323396</v>
-      </c>
-      <c r="W14" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="X14" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y14" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z14" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA14" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB14" s="33">
-        <v>9012633035</v>
-      </c>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE14" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF14" s="33" t="s">
+      <c r="BE14" s="29">
         <v>151</v>
       </c>
-      <c r="AG14" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH14" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA14" s="33">
-        <v>1</v>
-      </c>
-      <c r="BB14" s="33">
-        <v>7000</v>
-      </c>
-      <c r="BC14" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD14" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE14" s="33">
-        <v>151</v>
-      </c>
-      <c r="BF14" s="33">
+      <c r="BF14" s="29">
         <v>40</v>
       </c>
-      <c r="BG14" s="33">
+      <c r="BG14" s="29">
         <v>40</v>
       </c>
-      <c r="BH14" s="33">
+      <c r="BH14" s="29">
         <v>40</v>
       </c>
-      <c r="BI14" s="33" t="s">
+      <c r="BI14" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="BJ14" s="33" t="s">
+      <c r="BJ14" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="BK14" s="33" t="s">
+      <c r="BK14" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="BL14" s="33" t="s">
+      <c r="BL14" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="BM14" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="BN14" s="33" t="s">
+      <c r="BM14" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="BN14" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="BO14" s="36" t="s">
+      <c r="BO14" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="BP14" s="24"/>
-      <c r="BQ14" s="24"/>
-      <c r="BR14" s="24"/>
-      <c r="BS14" s="24"/>
-      <c r="BT14" s="24"/>
-      <c r="BU14" s="24"/>
-      <c r="BV14" s="24"/>
-      <c r="BW14" s="24"/>
+      <c r="BP14" s="22"/>
+      <c r="BQ14" s="22"/>
+      <c r="BR14" s="22"/>
+      <c r="BS14" s="22"/>
+      <c r="BT14" s="22"/>
+      <c r="BU14" s="22"/>
+      <c r="BV14" s="22"/>
+      <c r="BW14" s="22"/>
     </row>
     <row r="15" spans="1:75" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="33">
         <v>323365</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="33">
         <v>10</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="N15" s="38" t="s">
+      <c r="N15" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="P15" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="38" t="s">
+      <c r="Q15" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="S15" s="38" t="s">
+      <c r="S15" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="T15" s="38" t="b">
+      <c r="T15" s="33"/>
+      <c r="U15" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="V15" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z15" s="33">
+        <v>99202</v>
+      </c>
+      <c r="AA15" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB15" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC15" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="U15" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="W15" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="X15" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y15" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z15" s="38">
-        <v>99202</v>
-      </c>
-      <c r="AA15" s="38" t="s">
+      <c r="AD15" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE15" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF15" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG15" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="AB15" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC15" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE15" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF15" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG15" s="38" t="s">
+      <c r="AH15" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK15" s="33">
+        <v>100</v>
+      </c>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN15" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO15" s="33">
+        <v>123456789</v>
+      </c>
+      <c r="AP15" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" s="33">
+        <v>3305551234</v>
+      </c>
+      <c r="AT15" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU15" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV15" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW15" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX15" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="AH15" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38" t="s">
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA15" s="33">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="33">
+        <v>7000</v>
+      </c>
+      <c r="BC15" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="AK15" s="38">
-        <v>100</v>
-      </c>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN15" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO15" s="38">
-        <v>123456789</v>
-      </c>
-      <c r="AP15" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS15" s="38">
-        <v>3305551234</v>
-      </c>
-      <c r="AT15" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU15" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV15" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW15" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX15" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY15" s="38"/>
-      <c r="AZ15" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA15" s="38">
-        <v>1</v>
-      </c>
-      <c r="BB15" s="38">
-        <v>7000</v>
-      </c>
-      <c r="BC15" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD15" s="38" t="s">
+      <c r="BD15" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="BE15" s="38">
+      <c r="BE15" s="33">
         <v>10</v>
       </c>
-      <c r="BF15" s="38">
+      <c r="BF15" s="33">
         <v>20</v>
       </c>
-      <c r="BG15" s="38">
+      <c r="BG15" s="33">
         <v>15</v>
       </c>
-      <c r="BH15" s="38">
+      <c r="BH15" s="33">
         <v>20</v>
       </c>
-      <c r="BI15" s="38" t="s">
+      <c r="BI15" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="BJ15" s="38" t="s">
+      <c r="BJ15" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="BK15" s="38" t="s">
+      <c r="BK15" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="BL15" s="38"/>
-      <c r="BM15" s="38"/>
-      <c r="BN15" s="38" t="s">
+      <c r="BL15" s="33"/>
+      <c r="BM15" s="33"/>
+      <c r="BN15" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="BO15" s="42" t="s">
+      <c r="BO15" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="BP15" s="24"/>
-      <c r="BQ15" s="24"/>
-      <c r="BR15" s="24"/>
-      <c r="BS15" s="24"/>
-      <c r="BT15" s="24"/>
-      <c r="BU15" s="24"/>
-      <c r="BV15" s="24"/>
-      <c r="BW15" s="24"/>
+      <c r="BP15" s="22"/>
+      <c r="BQ15" s="22"/>
+      <c r="BR15" s="22"/>
+      <c r="BS15" s="22"/>
+      <c r="BT15" s="22"/>
+      <c r="BU15" s="22"/>
+      <c r="BV15" s="22"/>
+      <c r="BW15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom-Alcohol.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom-Alcohol.xlsx
@@ -970,18 +970,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,6 +990,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1326,9 +1326,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BW15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BN27" sqref="BN27"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1787,7 @@
       <c r="A3" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="47" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="19"/>
@@ -1806,171 +1806,171 @@
       <c r="H3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="38">
         <v>36</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="S3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="42" t="s">
+      <c r="T3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="U3" s="42" t="s">
+      <c r="U3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="V3" s="42">
+      <c r="V3" s="38">
         <v>323210</v>
       </c>
-      <c r="W3" s="45" t="s">
+      <c r="W3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="42" t="s">
+      <c r="X3" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" s="42" t="s">
+      <c r="Y3" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="42" t="s">
+      <c r="Z3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="42" t="s">
+      <c r="AA3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" s="42" t="s">
+      <c r="AB3" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AC3" s="42" t="s">
+      <c r="AC3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="AD3" s="42" t="s">
+      <c r="AD3" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="42" t="s">
+      <c r="AE3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="42" t="s">
+      <c r="AF3" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="42" t="s">
+      <c r="AG3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="42" t="s">
+      <c r="AH3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42" t="s">
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="AK3" s="42" t="s">
+      <c r="AK3" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42" t="s">
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="AN3" s="42" t="s">
+      <c r="AN3" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="AO3" s="42">
+      <c r="AO3" s="38">
         <v>123456789</v>
       </c>
-      <c r="AP3" s="42" t="s">
+      <c r="AP3" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42" t="s">
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AS3" s="42">
+      <c r="AS3" s="38">
         <v>3305551234</v>
       </c>
-      <c r="AT3" s="42" t="s">
+      <c r="AT3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AU3" s="42" t="s">
+      <c r="AU3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AV3" s="42" t="s">
+      <c r="AV3" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AW3" s="42" t="s">
+      <c r="AW3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AX3" s="42" t="s">
+      <c r="AX3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AY3" s="42" t="s">
+      <c r="AY3" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="AZ3" s="42" t="s">
+      <c r="AZ3" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="BA3" s="42">
+      <c r="BA3" s="38">
         <v>1</v>
       </c>
-      <c r="BB3" s="42">
+      <c r="BB3" s="38">
         <v>250</v>
       </c>
-      <c r="BC3" s="42" t="s">
+      <c r="BC3" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="BD3" s="42" t="s">
+      <c r="BD3" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="BE3" s="42" t="s">
+      <c r="BE3" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="BF3" s="42" t="s">
+      <c r="BF3" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BG3" s="42" t="s">
+      <c r="BG3" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="BH3" s="42" t="s">
+      <c r="BH3" s="38" t="s">
         <v>100</v>
       </c>
       <c r="BI3" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="BJ3" s="42" t="s">
+      <c r="BJ3" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="BK3" s="42" t="s">
+      <c r="BK3" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42" t="s">
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="BO3" s="48" t="s">
+      <c r="BO3" s="44" t="s">
         <v>105</v>
       </c>
       <c r="BP3" s="22"/>
@@ -1986,7 +1986,7 @@
       <c r="A4" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="23"/>
       <c r="D4" s="24" t="s">
         <v>106</v>
@@ -2155,7 +2155,7 @@
       <c r="A5" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="23"/>
       <c r="D5" s="24" t="s">
         <v>114</v>
@@ -2324,7 +2324,7 @@
       <c r="A6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
         <v>114</v>
@@ -2493,7 +2493,7 @@
       <c r="A7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
         <v>114</v>
@@ -2662,7 +2662,7 @@
       <c r="A8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24" t="s">
         <v>114</v>
@@ -2831,7 +2831,7 @@
       <c r="A9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24" t="s">
         <v>122</v>
@@ -3000,7 +3000,7 @@
       <c r="A10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
         <v>114</v>
@@ -3171,7 +3171,7 @@
       <c r="A11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24" t="s">
         <v>130</v>
@@ -3340,7 +3340,7 @@
       <c r="A12" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24" t="s">
         <v>122</v>
@@ -3360,16 +3360,16 @@
       <c r="I12" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="40">
         <v>20</v>
       </c>
       <c r="K12" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="46" t="s">
+      <c r="L12" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="46" t="s">
+      <c r="M12" s="42" t="s">
         <v>75</v>
       </c>
       <c r="N12" s="36" t="s">
@@ -3399,7 +3399,7 @@
       <c r="V12" s="36">
         <v>323287</v>
       </c>
-      <c r="W12" s="46" t="s">
+      <c r="W12" s="42" t="s">
         <v>133</v>
       </c>
       <c r="X12" s="36" t="s">
@@ -3469,7 +3469,7 @@
       <c r="BD12" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="BE12" s="44">
+      <c r="BE12" s="40">
         <v>20</v>
       </c>
       <c r="BF12" s="36">
@@ -3495,7 +3495,7 @@
       <c r="BN12" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="BO12" s="49" t="s">
+      <c r="BO12" s="45" t="s">
         <v>113</v>
       </c>
       <c r="BP12" s="22"/>
@@ -3511,7 +3511,7 @@
       <c r="A13" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="49" t="s">
         <v>136</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -3532,143 +3532,143 @@
       <c r="H13" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="39">
         <v>105</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="43" t="s">
+      <c r="O13" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="43" t="s">
+      <c r="P13" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="43" t="s">
+      <c r="Q13" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="R13" s="43" t="s">
+      <c r="R13" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="S13" s="43" t="s">
+      <c r="S13" s="39" t="s">
         <v>81</v>
       </c>
       <c r="T13" s="29"/>
-      <c r="U13" s="43" t="s">
+      <c r="U13" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="V13" s="43" t="s">
+      <c r="V13" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="W13" s="47" t="s">
+      <c r="W13" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="X13" s="43" t="s">
+      <c r="X13" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="Y13" s="43" t="s">
+      <c r="Y13" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="Z13" s="43">
+      <c r="Z13" s="39">
         <v>30052</v>
       </c>
-      <c r="AA13" s="43" t="s">
+      <c r="AA13" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="AB13" s="43" t="s">
+      <c r="AB13" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AC13" s="43" t="b">
+      <c r="AC13" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="AD13" s="43" t="s">
+      <c r="AD13" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="AE13" s="43" t="s">
+      <c r="AE13" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="AF13" s="43" t="s">
+      <c r="AF13" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="AG13" s="43" t="s">
+      <c r="AG13" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="43"/>
-      <c r="AK13" s="43"/>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="43"/>
-      <c r="AN13" s="43"/>
-      <c r="AO13" s="43"/>
-      <c r="AP13" s="43"/>
-      <c r="AQ13" s="43"/>
-      <c r="AR13" s="43"/>
-      <c r="AS13" s="43"/>
-      <c r="AT13" s="43"/>
-      <c r="AU13" s="43"/>
-      <c r="AV13" s="43"/>
-      <c r="AW13" s="43"/>
-      <c r="AX13" s="43"/>
-      <c r="AY13" s="43"/>
-      <c r="AZ13" s="43" t="s">
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="BA13" s="43">
+      <c r="BA13" s="39">
         <v>1</v>
       </c>
-      <c r="BB13" s="43">
+      <c r="BB13" s="39">
         <v>250</v>
       </c>
-      <c r="BC13" s="43" t="s">
+      <c r="BC13" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="BD13" s="43" t="s">
+      <c r="BD13" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="BE13" s="43">
+      <c r="BE13" s="39">
         <v>105</v>
       </c>
-      <c r="BF13" s="43">
+      <c r="BF13" s="39">
         <v>20</v>
       </c>
-      <c r="BG13" s="43">
+      <c r="BG13" s="39">
         <v>15</v>
       </c>
-      <c r="BH13" s="43">
+      <c r="BH13" s="39">
         <v>20</v>
       </c>
-      <c r="BI13" s="43" t="s">
+      <c r="BI13" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="BJ13" s="43" t="s">
+      <c r="BJ13" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="BK13" s="43" t="s">
+      <c r="BK13" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="BL13" s="43" t="s">
+      <c r="BL13" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="BM13" s="43" t="s">
+      <c r="BM13" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="BN13" s="43" t="s">
+      <c r="BN13" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="BO13" s="50" t="s">
+      <c r="BO13" s="46" t="s">
         <v>113</v>
       </c>
       <c r="BP13" s="22"/>
@@ -3684,7 +3684,7 @@
       <c r="A14" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="29" t="s">
         <v>144</v>
       </c>
@@ -3706,11 +3706,11 @@
       <c r="I14" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="29">
+        <v>500</v>
+      </c>
+      <c r="K14" s="29" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="29">
-        <v>500</v>
       </c>
       <c r="L14" s="31" t="s">
         <v>74</v>
@@ -3855,7 +3855,7 @@
       <c r="A15" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="33" t="s">
         <v>153</v>
       </c>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom-Alcohol.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom-Alcohol.xlsx
@@ -120,391 +120,391 @@
     <t>RequestedPackageLineItems.SpecialServicesRequested.SpecialServiceTypes</t>
   </si>
   <si>
+    <t>TC #</t>
+  </si>
+  <si>
+    <t>CustomerTransactionId</t>
+  </si>
+  <si>
+    <t>DropoffType</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>PackagingType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>PersonName</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>StreetLines</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>StateOrProvinceCode</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>SpecialServiceTypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpecialServiceTypes </t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>AddTransportationCharges</t>
+  </si>
+  <si>
+    <t>CollectionType</t>
+  </si>
+  <si>
+    <t>TinType</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ReferenceIndicator</t>
+  </si>
+  <si>
+    <t>RateRequestTypes</t>
+  </si>
+  <si>
+    <t>PackageCount</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>CustomerReferenceType</t>
+  </si>
+  <si>
+    <t>SignatureOptionDetail</t>
+  </si>
+  <si>
+    <t>RecipientType</t>
+  </si>
+  <si>
+    <t>REVENUE</t>
+  </si>
+  <si>
+    <t>Alcohol, COD, Your Packaging, Express Saver</t>
+  </si>
+  <si>
+    <t>FDXShipRequest</t>
+  </si>
+  <si>
+    <t>REGULAR_PICKUP</t>
+  </si>
+  <si>
+    <t>FEDEX_EXPRESS_SAVER</t>
+  </si>
+  <si>
+    <t>YOUR_PACKAGING</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>James Weston</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>9012633035</t>
+  </si>
+  <si>
+    <t>1751 THOMPSON ST</t>
+  </si>
+  <si>
+    <t>AURORA</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>44202</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CSP testing</t>
+  </si>
+  <si>
+    <t>110 Fedex parkway</t>
+  </si>
+  <si>
+    <t>NEW ORLEANS</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>70119</t>
+  </si>
+  <si>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>Please use shipper account number</t>
+  </si>
+  <si>
+    <t>CSP Testing</t>
+  </si>
+  <si>
+    <t>COD Each Package</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>100 Each Package</t>
+  </si>
+  <si>
+    <t>ANY Each Package</t>
+  </si>
+  <si>
+    <t>PERSONAL_STATE</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>18 Each Package</t>
+  </si>
+  <si>
+    <t>20 Each Package</t>
+  </si>
+  <si>
+    <t>15 Each Package</t>
+  </si>
+  <si>
+    <t>CUSTOMER_REFERENCE</t>
+  </si>
+  <si>
+    <t>$AW</t>
+  </si>
+  <si>
+    <t>ALCOHOL</t>
+  </si>
+  <si>
+    <t>CONSUMER</t>
+  </si>
+  <si>
+    <t>Alcohol, Your Packaging, 2 day</t>
+  </si>
+  <si>
+    <t>FEDEX_2_DAY</t>
+  </si>
+  <si>
+    <t>86 Fedex parkway</t>
+  </si>
+  <si>
+    <t>PADUCAH</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>42001</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>LICENSEE</t>
+  </si>
+  <si>
+    <t>Alcohol, Your Packaging, Priority Overnight</t>
+  </si>
+  <si>
+    <t>PRIORITY_OVERNIGHT</t>
+  </si>
+  <si>
+    <t>9 Fedex parkway</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>126 Fedex parkway</t>
+  </si>
+  <si>
+    <t>RECIPIENT</t>
+  </si>
+  <si>
+    <t>134 Fedex parkway</t>
+  </si>
+  <si>
+    <t>144 Fedex parkway</t>
+  </si>
+  <si>
+    <t>Alcohol, Your Packaging, First Overnight</t>
+  </si>
+  <si>
+    <t>REQUEST_COURIER</t>
+  </si>
+  <si>
+    <t>FIRST_OVERNIGHT</t>
+  </si>
+  <si>
+    <t>17 Fedex parkway</t>
+  </si>
+  <si>
+    <t>42 Fedex parkway</t>
+  </si>
+  <si>
+    <t>ANCHORAGE</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>99501</t>
+  </si>
+  <si>
+    <t>Alcohol, Your Packaging, Standard Overnight</t>
+  </si>
+  <si>
+    <t>STANDARD_OVERNIGHT</t>
+  </si>
+  <si>
+    <t>58 Fedex parkway</t>
+  </si>
+  <si>
+    <t>20 Fedex parkway</t>
+  </si>
+  <si>
+    <t>FEDERAL WAY</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>REVENUE + LABELS</t>
+  </si>
+  <si>
+    <t>PO7</t>
+  </si>
+  <si>
+    <t>Alcohol, Priority Overnight Cust Pkg</t>
+  </si>
+  <si>
+    <t>20 FedEx Pkwy</t>
+  </si>
+  <si>
+    <t>Loganville</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>SIGNATURE_OPTION</t>
+  </si>
+  <si>
+    <t>ADULT</t>
+  </si>
+  <si>
+    <t>EF1</t>
+  </si>
+  <si>
+    <t>Alcohol, Your Packaging, 1day freight,Sat Pickup,Adult signature</t>
+  </si>
+  <si>
+    <t>FEDEX_1_DAY_FREIGHT</t>
+  </si>
+  <si>
+    <t>128 Fedex parkway</t>
+  </si>
+  <si>
+    <t>Gowrie</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>50543</t>
+  </si>
+  <si>
+    <t>RTC Testing</t>
+  </si>
+  <si>
+    <t>SATURDAY_PICKUP</t>
+  </si>
+  <si>
+    <t>ES4</t>
+  </si>
+  <si>
+    <t>Alcohol, 2day, Cust Pkg</t>
+  </si>
+  <si>
+    <t>Spokane</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>GUARANTEED_FUNDS</t>
+  </si>
+  <si>
+    <t>DIRECT</t>
+  </si>
+  <si>
     <t>RequestedPackageLineItems.SpecialServicesRequested.SpecialServiceTypes.AlcoholDetail</t>
-  </si>
-  <si>
-    <t>TC #</t>
-  </si>
-  <si>
-    <t>CustomerTransactionId</t>
-  </si>
-  <si>
-    <t>DropoffType</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>PackagingType</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>PersonName</t>
-  </si>
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>StreetLines</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>StateOrProvinceCode</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
-    <t>CountryCode</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>PaymentType</t>
-  </si>
-  <si>
-    <t>AccountNumber</t>
-  </si>
-  <si>
-    <t>SpecialServiceTypes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpecialServiceTypes </t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>AddTransportationCharges</t>
-  </si>
-  <si>
-    <t>CollectionType</t>
-  </si>
-  <si>
-    <t>TinType</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>ReferenceIndicator</t>
-  </si>
-  <si>
-    <t>RateRequestTypes</t>
-  </si>
-  <si>
-    <t>PackageCount</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>CustomerReferenceType</t>
-  </si>
-  <si>
-    <t>SignatureOptionDetail</t>
-  </si>
-  <si>
-    <t>RecipientType</t>
-  </si>
-  <si>
-    <t>REVENUE</t>
-  </si>
-  <si>
-    <t>Alcohol, COD, Your Packaging, Express Saver</t>
-  </si>
-  <si>
-    <t>FDXShipRequest</t>
-  </si>
-  <si>
-    <t>REGULAR_PICKUP</t>
-  </si>
-  <si>
-    <t>FEDEX_EXPRESS_SAVER</t>
-  </si>
-  <si>
-    <t>YOUR_PACKAGING</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>James Weston</t>
-  </si>
-  <si>
-    <t>RTC</t>
-  </si>
-  <si>
-    <t>9012633035</t>
-  </si>
-  <si>
-    <t>1751 THOMPSON ST</t>
-  </si>
-  <si>
-    <t>AURORA</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>44202</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CSP testing</t>
-  </si>
-  <si>
-    <t>110 Fedex parkway</t>
-  </si>
-  <si>
-    <t>NEW ORLEANS</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>70119</t>
-  </si>
-  <si>
-    <t>SENDER</t>
-  </si>
-  <si>
-    <t>Please use shipper account number</t>
-  </si>
-  <si>
-    <t>CSP Testing</t>
-  </si>
-  <si>
-    <t>COD Each Package</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>100 Each Package</t>
-  </si>
-  <si>
-    <t>ANY Each Package</t>
-  </si>
-  <si>
-    <t>PERSONAL_STATE</t>
-  </si>
-  <si>
-    <t>CSP</t>
-  </si>
-  <si>
-    <t>INVOICE</t>
-  </si>
-  <si>
-    <t>LIST</t>
-  </si>
-  <si>
-    <t>18 Each Package</t>
-  </si>
-  <si>
-    <t>20 Each Package</t>
-  </si>
-  <si>
-    <t>15 Each Package</t>
-  </si>
-  <si>
-    <t>CUSTOMER_REFERENCE</t>
-  </si>
-  <si>
-    <t>$AW</t>
-  </si>
-  <si>
-    <t>ALCOHOL</t>
-  </si>
-  <si>
-    <t>CONSUMER</t>
-  </si>
-  <si>
-    <t>Alcohol, Your Packaging, 2 day</t>
-  </si>
-  <si>
-    <t>FEDEX_2_DAY</t>
-  </si>
-  <si>
-    <t>86 Fedex parkway</t>
-  </si>
-  <si>
-    <t>PADUCAH</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>42001</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>LICENSEE</t>
-  </si>
-  <si>
-    <t>Alcohol, Your Packaging, Priority Overnight</t>
-  </si>
-  <si>
-    <t>PRIORITY_OVERNIGHT</t>
-  </si>
-  <si>
-    <t>9 Fedex parkway</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>126 Fedex parkway</t>
-  </si>
-  <si>
-    <t>RECIPIENT</t>
-  </si>
-  <si>
-    <t>134 Fedex parkway</t>
-  </si>
-  <si>
-    <t>144 Fedex parkway</t>
-  </si>
-  <si>
-    <t>Alcohol, Your Packaging, First Overnight</t>
-  </si>
-  <si>
-    <t>REQUEST_COURIER</t>
-  </si>
-  <si>
-    <t>FIRST_OVERNIGHT</t>
-  </si>
-  <si>
-    <t>17 Fedex parkway</t>
-  </si>
-  <si>
-    <t>42 Fedex parkway</t>
-  </si>
-  <si>
-    <t>ANCHORAGE</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>99501</t>
-  </si>
-  <si>
-    <t>Alcohol, Your Packaging, Standard Overnight</t>
-  </si>
-  <si>
-    <t>STANDARD_OVERNIGHT</t>
-  </si>
-  <si>
-    <t>58 Fedex parkway</t>
-  </si>
-  <si>
-    <t>20 Fedex parkway</t>
-  </si>
-  <si>
-    <t>FEDERAL WAY</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>REVENUE + LABELS</t>
-  </si>
-  <si>
-    <t>PO7</t>
-  </si>
-  <si>
-    <t>Alcohol, Priority Overnight Cust Pkg</t>
-  </si>
-  <si>
-    <t>20 FedEx Pkwy</t>
-  </si>
-  <si>
-    <t>Loganville</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>SIGNATURE_OPTION</t>
-  </si>
-  <si>
-    <t>ADULT</t>
-  </si>
-  <si>
-    <t>EF1</t>
-  </si>
-  <si>
-    <t>Alcohol, Your Packaging, 1day freight,Sat Pickup,Adult signature</t>
-  </si>
-  <si>
-    <t>FEDEX_1_DAY_FREIGHT</t>
-  </si>
-  <si>
-    <t>128 Fedex parkway</t>
-  </si>
-  <si>
-    <t>Gowrie</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>50543</t>
-  </si>
-  <si>
-    <t>RTC Testing</t>
-  </si>
-  <si>
-    <t>SATURDAY_PICKUP</t>
-  </si>
-  <si>
-    <t>ES4</t>
-  </si>
-  <si>
-    <t>Alcohol, 2day, Cust Pkg</t>
-  </si>
-  <si>
-    <t>Spokane</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>GUARANTEED_FUNDS</t>
-  </si>
-  <si>
-    <t>DIRECT</t>
   </si>
 </sst>
 </file>
@@ -1326,9 +1326,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BW15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BG1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="BO1" sqref="BO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1588,199 +1588,199 @@
         <v>28</v>
       </c>
       <c r="BO1" s="7" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:75" s="9" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="AE2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="12" t="s">
+      <c r="AT2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="AV2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AW2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AX2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AY2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AR2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY2" s="12" t="s">
+      <c r="AZ2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ2" s="16" t="s">
+      <c r="BA2" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="BA2" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="BB2" s="12"/>
       <c r="BC2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BD2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BE2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BF2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH2" s="12" t="s">
+      <c r="BJ2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BI2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ2" s="12" t="s">
+      <c r="BK2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="BK2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="BM2" s="17" t="s">
+      <c r="BN2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BO2" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="BN2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="BO2" s="16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1788,149 +1788,149 @@
         <v>0</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="F3" s="19">
         <v>323210</v>
       </c>
       <c r="G3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="J3" s="38">
         <v>36</v>
       </c>
       <c r="K3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="M3" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="N3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="O3" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="P3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="Q3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="R3" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="S3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="T3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="U3" s="38" t="s">
         <v>82</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>83</v>
       </c>
       <c r="V3" s="38">
         <v>323210</v>
       </c>
       <c r="W3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="Y3" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Z3" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="38" t="s">
+      <c r="AA3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB3" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD3" s="38" t="s">
+      <c r="AE3" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="38" t="s">
+      <c r="AF3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="38" t="s">
+      <c r="AG3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH3" s="38" t="s">
         <v>90</v>
-      </c>
-      <c r="AG3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH3" s="38" t="s">
-        <v>91</v>
       </c>
       <c r="AI3" s="38"/>
       <c r="AJ3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" s="38" t="s">
         <v>92</v>
-      </c>
-      <c r="AK3" s="38" t="s">
-        <v>93</v>
       </c>
       <c r="AL3" s="38"/>
       <c r="AM3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN3" s="38" t="s">
         <v>94</v>
-      </c>
-      <c r="AN3" s="38" t="s">
-        <v>95</v>
       </c>
       <c r="AO3" s="38">
         <v>123456789</v>
       </c>
       <c r="AP3" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AQ3" s="38"/>
       <c r="AR3" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AS3" s="38">
         <v>3305551234</v>
       </c>
       <c r="AT3" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AU3" s="38" t="s">
+      <c r="AV3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AV3" s="38" t="s">
+      <c r="AW3" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AW3" s="38" t="s">
+      <c r="AX3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AX3" s="38" t="s">
-        <v>81</v>
-      </c>
       <c r="AY3" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ3" s="38" t="s">
         <v>97</v>
-      </c>
-      <c r="AZ3" s="38" t="s">
-        <v>98</v>
       </c>
       <c r="BA3" s="38">
         <v>1</v>
@@ -1939,39 +1939,39 @@
         <v>250</v>
       </c>
       <c r="BC3" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD3" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE3" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF3" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="BF3" s="38" t="s">
+      <c r="BG3" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BG3" s="38" t="s">
+      <c r="BH3" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI3" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ3" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="BH3" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI3" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="BJ3" s="38" t="s">
+      <c r="BK3" s="38" t="s">
         <v>102</v>
-      </c>
-      <c r="BK3" s="38" t="s">
-        <v>103</v>
       </c>
       <c r="BL3" s="38"/>
       <c r="BM3" s="38"/>
       <c r="BN3" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO3" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="BO3" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="BP3" s="22"/>
       <c r="BQ3" s="22"/>
@@ -1989,100 +1989,100 @@
       <c r="B4" s="48"/>
       <c r="C4" s="23"/>
       <c r="D4" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="23">
         <v>323217</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="23">
         <v>9</v>
       </c>
       <c r="K4" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="M4" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="N4" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="O4" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="P4" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="Q4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="R4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="S4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="T4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="U4" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="V4" s="23">
         <v>323217</v>
       </c>
       <c r="W4" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="X4" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="Y4" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Z4" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z4" s="23" t="s">
-        <v>111</v>
-      </c>
       <c r="AA4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC4" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="AD4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE4" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE4" s="23" t="s">
+      <c r="AF4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF4" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="AG4" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
       <c r="AJ4" s="23"/>
       <c r="AK4" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL4" s="23"/>
       <c r="AM4" s="23"/>
@@ -2099,7 +2099,7 @@
       <c r="AX4" s="23"/>
       <c r="AY4" s="23"/>
       <c r="AZ4" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA4" s="23">
         <v>1</v>
@@ -2108,10 +2108,10 @@
         <v>250</v>
       </c>
       <c r="BC4" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD4" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE4" s="23">
         <v>9</v>
@@ -2126,21 +2126,21 @@
         <v>20</v>
       </c>
       <c r="BI4" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ4" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK4" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="BK4" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="BL4" s="23"/>
       <c r="BM4" s="23"/>
       <c r="BN4" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BO4" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BP4" s="22"/>
       <c r="BQ4" s="22"/>
@@ -2158,100 +2158,100 @@
       <c r="B5" s="48"/>
       <c r="C5" s="23"/>
       <c r="D5" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="23">
         <v>323238</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="23">
         <v>9</v>
       </c>
       <c r="K5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="M5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="O5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="P5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="Q5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="R5" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="S5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="T5" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="U5" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="U5" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="V5" s="23">
         <v>323238</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X5" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Z5" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z5" s="23" t="s">
-        <v>111</v>
-      </c>
       <c r="AA5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC5" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="AD5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AF5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF5" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="AG5" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
       <c r="AJ5" s="23"/>
       <c r="AK5" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL5" s="23"/>
       <c r="AM5" s="23"/>
@@ -2268,7 +2268,7 @@
       <c r="AX5" s="23"/>
       <c r="AY5" s="23"/>
       <c r="AZ5" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA5" s="23">
         <v>1</v>
@@ -2277,10 +2277,10 @@
         <v>250</v>
       </c>
       <c r="BC5" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD5" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE5" s="23">
         <v>9</v>
@@ -2295,21 +2295,21 @@
         <v>20</v>
       </c>
       <c r="BI5" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK5" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="BK5" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="BL5" s="23"/>
       <c r="BM5" s="23"/>
       <c r="BN5" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BO5" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BP5" s="22"/>
       <c r="BQ5" s="22"/>
@@ -2327,100 +2327,100 @@
       <c r="B6" s="48"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="23">
         <v>323259</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="23" t="s">
+      <c r="L6" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="M6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="N6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="O6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="P6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="Q6" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="R6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="S6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="23" t="s">
+      <c r="T6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="U6" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="U6" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="V6" s="23">
         <v>323259</v>
       </c>
       <c r="W6" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD6" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="X6" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y6" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z6" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA6" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC6" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD6" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="AE6" s="23">
         <v>150067600</v>
       </c>
       <c r="AF6" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG6" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
       <c r="AJ6" s="23"/>
       <c r="AK6" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL6" s="23"/>
       <c r="AM6" s="23"/>
@@ -2437,7 +2437,7 @@
       <c r="AX6" s="23"/>
       <c r="AY6" s="23"/>
       <c r="AZ6" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA6" s="23">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>250</v>
       </c>
       <c r="BC6" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD6" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE6" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF6" s="23">
         <v>10</v>
@@ -2464,21 +2464,21 @@
         <v>10</v>
       </c>
       <c r="BI6" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ6" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK6" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="BK6" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="BL6" s="23"/>
       <c r="BM6" s="23"/>
       <c r="BN6" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BO6" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BP6" s="22"/>
       <c r="BQ6" s="22"/>
@@ -2496,100 +2496,100 @@
       <c r="B7" s="48"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="23">
         <v>323267</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="23" t="s">
+      <c r="L7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="M7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="N7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="O7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="P7" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="Q7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="R7" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="S7" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S7" s="23" t="s">
+      <c r="T7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="U7" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="U7" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="V7" s="23">
         <v>323267</v>
       </c>
       <c r="W7" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y7" s="23" t="s">
+      <c r="Z7" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="Z7" s="23" t="s">
-        <v>87</v>
-      </c>
       <c r="AA7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB7" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC7" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="AD7" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE7" s="23">
         <v>150067600</v>
       </c>
       <c r="AF7" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG7" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7" s="23"/>
       <c r="AI7" s="23"/>
       <c r="AJ7" s="23"/>
       <c r="AK7" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL7" s="23"/>
       <c r="AM7" s="23"/>
@@ -2606,7 +2606,7 @@
       <c r="AX7" s="23"/>
       <c r="AY7" s="23"/>
       <c r="AZ7" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA7" s="23">
         <v>1</v>
@@ -2615,13 +2615,13 @@
         <v>250</v>
       </c>
       <c r="BC7" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD7" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE7" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF7" s="23">
         <v>10</v>
@@ -2633,21 +2633,21 @@
         <v>10</v>
       </c>
       <c r="BI7" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ7" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK7" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="BK7" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="BL7" s="23"/>
       <c r="BM7" s="23"/>
       <c r="BN7" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO7" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="BO7" s="26" t="s">
-        <v>105</v>
       </c>
       <c r="BP7" s="22"/>
       <c r="BQ7" s="22"/>
@@ -2665,100 +2665,100 @@
       <c r="B8" s="48"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="23">
         <v>323277</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="23" t="s">
+      <c r="L8" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="M8" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="N8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="O8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="P8" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="Q8" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="23" t="s">
+      <c r="R8" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="23" t="s">
+      <c r="S8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S8" s="23" t="s">
+      <c r="T8" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="23" t="s">
+      <c r="U8" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="U8" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="V8" s="23">
         <v>323277</v>
       </c>
       <c r="W8" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y8" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y8" s="23" t="s">
+      <c r="Z8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="Z8" s="23" t="s">
+      <c r="AA8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AA8" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB8" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC8" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD8" s="23" t="s">
+      <c r="AE8" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE8" s="23" t="s">
+      <c r="AF8" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF8" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="AG8" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL8" s="23"/>
       <c r="AM8" s="23"/>
@@ -2775,7 +2775,7 @@
       <c r="AX8" s="23"/>
       <c r="AY8" s="23"/>
       <c r="AZ8" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA8" s="23">
         <v>1</v>
@@ -2784,13 +2784,13 @@
         <v>250</v>
       </c>
       <c r="BC8" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD8" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE8" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF8" s="23">
         <v>10</v>
@@ -2802,21 +2802,21 @@
         <v>10</v>
       </c>
       <c r="BI8" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ8" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK8" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="BK8" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="BL8" s="23"/>
       <c r="BM8" s="23"/>
       <c r="BN8" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BO8" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BP8" s="22"/>
       <c r="BQ8" s="22"/>
@@ -2834,100 +2834,100 @@
       <c r="B9" s="48"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="23">
         <v>323284</v>
       </c>
       <c r="G9" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>124</v>
-      </c>
       <c r="I9" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" s="23">
         <v>17</v>
       </c>
       <c r="K9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="M9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="N9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="O9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="P9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="Q9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="R9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="S9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="T9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="U9" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="U9" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="V9" s="23">
         <v>323284</v>
       </c>
       <c r="W9" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y9" s="23" t="s">
+      <c r="Z9" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="Z9" s="23" t="s">
+      <c r="AA9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AA9" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB9" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC9" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD9" s="23" t="s">
+      <c r="AE9" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE9" s="23" t="s">
+      <c r="AF9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF9" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="AG9" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL9" s="23"/>
       <c r="AM9" s="23"/>
@@ -2944,7 +2944,7 @@
       <c r="AX9" s="23"/>
       <c r="AY9" s="23"/>
       <c r="AZ9" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA9" s="23">
         <v>1</v>
@@ -2953,10 +2953,10 @@
         <v>250</v>
       </c>
       <c r="BC9" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD9" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE9" s="23">
         <v>17</v>
@@ -2971,21 +2971,21 @@
         <v>10</v>
       </c>
       <c r="BI9" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ9" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK9" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="BK9" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="BL9" s="23"/>
       <c r="BM9" s="23"/>
       <c r="BN9" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BO9" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BP9" s="22"/>
       <c r="BQ9" s="22"/>
@@ -3003,102 +3003,102 @@
       <c r="B10" s="48"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="23">
         <v>323309</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" s="23">
         <v>20</v>
       </c>
       <c r="K10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="M10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="N10" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="O10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="P10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="Q10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="R10" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="S10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S10" s="23" t="s">
+      <c r="T10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="U10" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="U10" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="V10" s="23">
         <v>323309</v>
       </c>
       <c r="W10" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="X10" s="23" t="s">
+      <c r="Y10" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="Y10" s="23" t="s">
+      <c r="Z10" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="Z10" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="AA10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB10" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC10" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="AD10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE10" s="23" t="s">
+      <c r="AF10" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF10" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="AG10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH10" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="AH10" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="AI10" s="23"/>
       <c r="AJ10" s="23"/>
       <c r="AK10" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL10" s="23"/>
       <c r="AM10" s="23"/>
@@ -3115,7 +3115,7 @@
       <c r="AX10" s="23"/>
       <c r="AY10" s="23"/>
       <c r="AZ10" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA10" s="23">
         <v>1</v>
@@ -3124,10 +3124,10 @@
         <v>250</v>
       </c>
       <c r="BC10" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD10" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE10" s="23">
         <v>20</v>
@@ -3142,21 +3142,21 @@
         <v>10</v>
       </c>
       <c r="BI10" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ10" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK10" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="BK10" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="BL10" s="23"/>
       <c r="BM10" s="23"/>
       <c r="BN10" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO10" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="BO10" s="26" t="s">
-        <v>105</v>
       </c>
       <c r="BP10" s="22"/>
       <c r="BQ10" s="22"/>
@@ -3174,100 +3174,100 @@
       <c r="B11" s="48"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="23">
         <v>323331</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="23">
         <v>9</v>
       </c>
       <c r="K11" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="M11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="N11" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="P11" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="Q11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="R11" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="S11" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="T11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="23" t="s">
+      <c r="U11" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="U11" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="V11" s="23">
         <v>323331</v>
       </c>
       <c r="W11" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X11" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Y11" s="23" t="s">
+      <c r="Z11" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="Z11" s="23" t="s">
-        <v>111</v>
-      </c>
       <c r="AA11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC11" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="AD11" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE11" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AE11" s="23" t="s">
+      <c r="AF11" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AF11" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="AG11" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
       <c r="AJ11" s="23"/>
       <c r="AK11" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL11" s="23"/>
       <c r="AM11" s="23"/>
@@ -3284,7 +3284,7 @@
       <c r="AX11" s="23"/>
       <c r="AY11" s="23"/>
       <c r="AZ11" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA11" s="23">
         <v>1</v>
@@ -3293,10 +3293,10 @@
         <v>250</v>
       </c>
       <c r="BC11" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD11" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE11" s="23">
         <v>9</v>
@@ -3311,21 +3311,21 @@
         <v>20</v>
       </c>
       <c r="BI11" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK11" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="BK11" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="BL11" s="23"/>
       <c r="BM11" s="23"/>
       <c r="BN11" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BO11" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BP11" s="22"/>
       <c r="BQ11" s="22"/>
@@ -3343,102 +3343,102 @@
       <c r="B12" s="48"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="23">
         <v>323287</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="40">
         <v>20</v>
       </c>
       <c r="K12" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="M12" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="N12" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="O12" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="36" t="s">
+      <c r="P12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="36" t="s">
+      <c r="Q12" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" s="36" t="s">
+      <c r="R12" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="R12" s="36" t="s">
+      <c r="S12" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="S12" s="36" t="s">
+      <c r="T12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="36" t="s">
+      <c r="U12" s="36" t="s">
         <v>82</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>83</v>
       </c>
       <c r="V12" s="36">
         <v>323287</v>
       </c>
       <c r="W12" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="X12" s="36" t="s">
+      <c r="Y12" s="36" t="s">
         <v>134</v>
-      </c>
-      <c r="Y12" s="36" t="s">
-        <v>135</v>
       </c>
       <c r="Z12" s="36">
         <v>98003</v>
       </c>
       <c r="AA12" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB12" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AB12" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC12" s="36" t="s">
-        <v>82</v>
-      </c>
       <c r="AD12" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE12" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="AE12" s="36" t="s">
+      <c r="AF12" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="AF12" s="36" t="s">
-        <v>90</v>
-      </c>
       <c r="AG12" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH12" s="36" t="s">
         <v>81</v>
-      </c>
-      <c r="AH12" s="36" t="s">
-        <v>82</v>
       </c>
       <c r="AI12" s="36"/>
       <c r="AJ12" s="36"/>
       <c r="AK12" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL12" s="36"/>
       <c r="AM12" s="36"/>
@@ -3455,7 +3455,7 @@
       <c r="AX12" s="36"/>
       <c r="AY12" s="36"/>
       <c r="AZ12" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA12" s="36">
         <v>1</v>
@@ -3464,10 +3464,10 @@
         <v>250</v>
       </c>
       <c r="BC12" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD12" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE12" s="40">
         <v>20</v>
@@ -3482,21 +3482,21 @@
         <v>30</v>
       </c>
       <c r="BI12" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ12" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK12" s="36" t="s">
         <v>102</v>
-      </c>
-      <c r="BK12" s="36" t="s">
-        <v>103</v>
       </c>
       <c r="BL12" s="36"/>
       <c r="BM12" s="36"/>
       <c r="BN12" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BO12" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BP12" s="22"/>
       <c r="BQ12" s="22"/>
@@ -3512,98 +3512,98 @@
         <v>1</v>
       </c>
       <c r="B13" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>138</v>
-      </c>
       <c r="E13" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="29">
         <v>323351</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="39">
         <v>105</v>
       </c>
       <c r="K13" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="M13" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="43" t="s">
+      <c r="N13" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="O13" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="39" t="s">
+      <c r="P13" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="Q13" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="39" t="s">
+      <c r="R13" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="S13" s="39" t="s">
         <v>80</v>
-      </c>
-      <c r="S13" s="39" t="s">
-        <v>81</v>
       </c>
       <c r="T13" s="29"/>
       <c r="U13" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V13" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W13" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="X13" s="39" t="s">
+      <c r="Y13" s="39" t="s">
         <v>140</v>
-      </c>
-      <c r="Y13" s="39" t="s">
-        <v>141</v>
       </c>
       <c r="Z13" s="39">
         <v>30052</v>
       </c>
       <c r="AA13" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB13" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC13" s="39" t="b">
         <v>0</v>
       </c>
       <c r="AD13" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE13" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="AE13" s="39" t="s">
+      <c r="AF13" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="AF13" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="AG13" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" s="39"/>
       <c r="AI13" s="39"/>
@@ -3624,7 +3624,7 @@
       <c r="AX13" s="39"/>
       <c r="AY13" s="39"/>
       <c r="AZ13" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA13" s="39">
         <v>1</v>
@@ -3633,10 +3633,10 @@
         <v>250</v>
       </c>
       <c r="BC13" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD13" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE13" s="39">
         <v>105</v>
@@ -3651,25 +3651,25 @@
         <v>20</v>
       </c>
       <c r="BI13" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ13" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK13" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL13" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM13" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN13" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO13" s="46" t="s">
         <v>112</v>
-      </c>
-      <c r="BJ13" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK13" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL13" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="BM13" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="BN13" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO13" s="46" t="s">
-        <v>113</v>
       </c>
       <c r="BP13" s="22"/>
       <c r="BQ13" s="22"/>
@@ -3686,96 +3686,96 @@
       </c>
       <c r="B14" s="49"/>
       <c r="C14" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>145</v>
-      </c>
       <c r="E14" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="29">
         <v>323396</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14" s="29">
         <v>500</v>
       </c>
       <c r="K14" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="M14" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="N14" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="N14" s="29" t="s">
+      <c r="O14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="29" t="s">
+      <c r="P14" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="29" t="s">
+      <c r="Q14" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="R14" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="R14" s="29" t="s">
+      <c r="S14" s="29" t="s">
         <v>80</v>
-      </c>
-      <c r="S14" s="29" t="s">
-        <v>81</v>
       </c>
       <c r="T14" s="29"/>
       <c r="U14" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V14" s="29">
         <v>323396</v>
       </c>
       <c r="W14" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="X14" s="29" t="s">
+      <c r="Y14" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="Y14" s="29" t="s">
+      <c r="Z14" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="Z14" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="AA14" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB14" s="29">
         <v>9012633035</v>
       </c>
       <c r="AC14" s="29"/>
       <c r="AD14" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE14" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="AE14" s="29" t="s">
-        <v>89</v>
-      </c>
       <c r="AF14" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH14" s="29" t="s">
         <v>151</v>
-      </c>
-      <c r="AG14" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH14" s="29" t="s">
-        <v>152</v>
       </c>
       <c r="AI14" s="29"/>
       <c r="AJ14" s="29"/>
@@ -3795,7 +3795,7 @@
       <c r="AX14" s="29"/>
       <c r="AY14" s="29"/>
       <c r="AZ14" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA14" s="29">
         <v>1</v>
@@ -3804,10 +3804,10 @@
         <v>7000</v>
       </c>
       <c r="BC14" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD14" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE14" s="29">
         <v>151</v>
@@ -3822,25 +3822,25 @@
         <v>40</v>
       </c>
       <c r="BI14" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK14" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="BK14" s="29" t="s">
+      <c r="BL14" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM14" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN14" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="BL14" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="BM14" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN14" s="29" t="s">
+      <c r="BO14" s="32" t="s">
         <v>104</v>
-      </c>
-      <c r="BO14" s="32" t="s">
-        <v>105</v>
       </c>
       <c r="BP14" s="22"/>
       <c r="BQ14" s="22"/>
@@ -3857,144 +3857,144 @@
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>154</v>
-      </c>
       <c r="E15" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="33">
         <v>323365</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="33">
         <v>10</v>
       </c>
       <c r="K15" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="M15" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="N15" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="N15" s="33" t="s">
+      <c r="O15" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="33" t="s">
+      <c r="P15" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="33" t="s">
+      <c r="Q15" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="33" t="s">
+      <c r="R15" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="R15" s="33" t="s">
+      <c r="S15" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="S15" s="33" t="s">
-        <v>81</v>
       </c>
       <c r="T15" s="33"/>
       <c r="U15" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V15" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X15" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y15" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z15" s="33">
         <v>99202</v>
       </c>
       <c r="AA15" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB15" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC15" s="33" t="b">
         <v>0</v>
       </c>
       <c r="AD15" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE15" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AE15" s="33" t="s">
+      <c r="AF15" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="AF15" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="AG15" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH15" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AI15" s="33"/>
       <c r="AJ15" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK15" s="33">
         <v>100</v>
       </c>
       <c r="AL15" s="33"/>
       <c r="AM15" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN15" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO15" s="33">
         <v>123456789</v>
       </c>
       <c r="AP15" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AQ15" s="33"/>
       <c r="AR15" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AS15" s="33">
         <v>3305551234</v>
       </c>
       <c r="AT15" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU15" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="AU15" s="33" t="s">
+      <c r="AV15" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="AV15" s="33" t="s">
+      <c r="AW15" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AW15" s="33" t="s">
+      <c r="AX15" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="AX15" s="33" t="s">
-        <v>81</v>
       </c>
       <c r="AY15" s="33"/>
       <c r="AZ15" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA15" s="33">
         <v>1</v>
@@ -4003,10 +4003,10 @@
         <v>7000</v>
       </c>
       <c r="BC15" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD15" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE15" s="33">
         <v>10</v>
@@ -4021,21 +4021,21 @@
         <v>20</v>
       </c>
       <c r="BI15" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ15" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK15" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="BK15" s="33" t="s">
-        <v>103</v>
       </c>
       <c r="BL15" s="33"/>
       <c r="BM15" s="33"/>
       <c r="BN15" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BO15" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BP15" s="22"/>
       <c r="BQ15" s="22"/>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom-Alcohol.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom-Alcohol.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwinchester\Documents\ShipWorks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="US Exp Dom-Alcohol" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -500,13 +500,13 @@
     <t>GUARANTEED_FUNDS</t>
   </si>
   <si>
-    <t xml:space="preserve">Save Label </t>
+    <t>SaveLabel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1313,9 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom-Alcohol.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Dom-Alcohol.xlsx
@@ -1313,7 +1313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
